--- a/inst/doc/xlsx/LOBSTAHS_componentCompTable.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_componentCompTable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcollins/Code/LOBSTAHS/inst/doc/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\R\win-library\3.3\LOBSTAHS\doc\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="460" windowWidth="25040" windowHeight="17460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="6345" yWindow="465" windowWidth="25035" windowHeight="17460" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Elemental composition matrix" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="Exact masses of basic species " sheetId="3" r:id="rId3"/>
     <sheet name="Notes" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="198">
   <si>
     <t>DGCC</t>
   </si>
@@ -549,12 +549,87 @@
   </si>
   <si>
     <t>Export the "LOBSTAHS_componentCompTable" worksheet as a .csv file with the filename "LOBSTAHS_componentCompTable.csv"; this file can be sourced by specifying the file path in the LOBSTAHS database generation function generateLOBdbase()</t>
+  </si>
+  <si>
+    <t>PDMS</t>
+  </si>
+  <si>
+    <t>PDMS6</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>PDMS7</t>
+  </si>
+  <si>
+    <t>PDMS8</t>
+  </si>
+  <si>
+    <t>PDMS9</t>
+  </si>
+  <si>
+    <t>PDMS10</t>
+  </si>
+  <si>
+    <t>PDMS11</t>
+  </si>
+  <si>
+    <t>PDMS12</t>
+  </si>
+  <si>
+    <t>PDMS13</t>
+  </si>
+  <si>
+    <t>PDMS14</t>
+  </si>
+  <si>
+    <t>PDMS15</t>
+  </si>
+  <si>
+    <t>PDMS16</t>
+  </si>
+  <si>
+    <t>PDMS17</t>
+  </si>
+  <si>
+    <t>PDMS18</t>
+  </si>
+  <si>
+    <t>PDMS19</t>
+  </si>
+  <si>
+    <t>PDMS20</t>
+  </si>
+  <si>
+    <t>PDMS21</t>
+  </si>
+  <si>
+    <t>PDMS22</t>
+  </si>
+  <si>
+    <t>PDMS23</t>
+  </si>
+  <si>
+    <t>PDMS24</t>
+  </si>
+  <si>
+    <t>PDMS25</t>
+  </si>
+  <si>
+    <t>PDMS26</t>
+  </si>
+  <si>
+    <t>PDMS27</t>
+  </si>
+  <si>
+    <t>Added Si as an elemental component and PDMS as series of unique species.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -757,6 +832,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1084,25 +1162,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="1080" activePane="bottomLeft"/>
-      <selection activeCell="R3" sqref="R3"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1080" topLeftCell="A80" activePane="bottomLeft"/>
+      <selection activeCell="P3" sqref="P3"/>
+      <selection pane="bottomLeft" activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="4.5" customWidth="1"/>
-    <col min="16" max="16" width="23.5" customWidth="1"/>
-    <col min="17" max="17" width="19.5" customWidth="1"/>
-    <col min="18" max="18" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="17" width="23.5" customWidth="1"/>
+    <col min="18" max="18" width="19.5" customWidth="1"/>
+    <col min="19" max="19" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>12</v>
       </c>
@@ -1137,18 +1215,18 @@
         <v>5.4857990924000002E-4</v>
       </c>
       <c r="M1">
-        <f>S16</f>
+        <f>T16</f>
         <v>41.026549125000003</v>
       </c>
       <c r="N1">
-        <f>S17</f>
+        <f>T17</f>
         <v>59.013304364</v>
       </c>
       <c r="O1">
         <v>23.985045</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>30</v>
       </c>
@@ -1192,19 +1270,22 @@
         <v>44</v>
       </c>
       <c r="P2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q2" t="s">
         <v>151</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>90</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>159</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1250,21 +1331,24 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" t="s">
-        <v>52</v>
+      <c r="P3">
+        <v>0</v>
       </c>
       <c r="Q3" t="s">
         <v>52</v>
       </c>
       <c r="R3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" t="s">
         <v>160</v>
       </c>
-      <c r="S3" s="4">
-        <f t="shared" ref="S3:S15" si="0">B3*$B$1+C3*$C$1+D3*$D$1+E3*$E$1+F3*$F$1+G3*$G$1+H3*$H$1+I3*$I$1+J3*$J$1+K3*$K$1+L3*$L$1+M3*$M$1+N3*$N$1+O3*$O$1</f>
+      <c r="T3" s="4">
+        <f t="shared" ref="T3:T15" si="0">B3*$B$1+C3*$C$1+D3*$D$1+E3*$E$1+F3*$F$1+G3*$G$1+H3*$H$1+I3*$I$1+J3*$J$1+K3*$K$1+L3*$L$1+M3*$M$1+N3*$N$1+O3*$O$1</f>
         <v>32.997654283999999</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1310,21 +1394,24 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" t="s">
-        <v>0</v>
-      </c>
       <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
         <v>160</v>
       </c>
-      <c r="S4" s="4">
+      <c r="T4" s="4">
         <f t="shared" si="0"/>
         <v>281.111066741</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1370,21 +1457,24 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
         <v>82</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>1</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>160</v>
       </c>
-      <c r="S5" s="4">
+      <c r="T5" s="4">
         <f t="shared" si="0"/>
         <v>446.12717036999999</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1430,21 +1520,24 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>2</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>160</v>
       </c>
-      <c r="S6" s="4">
+      <c r="T6" s="4">
         <f t="shared" si="0"/>
         <v>265.11615211899999</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1490,21 +1583,24 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" t="s">
-        <v>3</v>
+      <c r="P7">
+        <v>0</v>
       </c>
       <c r="Q7" t="s">
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>161</v>
-      </c>
-      <c r="S7" s="4">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>161</v>
+      </c>
+      <c r="T7" s="4">
         <f t="shared" si="0"/>
         <v>857.51666203100001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1550,21 +1646,24 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>4</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>160</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <f t="shared" si="0"/>
         <v>245.03005297300001</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1610,21 +1709,24 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
         <v>82</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>5</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>160</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <f t="shared" si="0"/>
         <v>276.024633252</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1670,21 +1772,24 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
         <v>82</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>6</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>160</v>
       </c>
-      <c r="S10" s="4">
+      <c r="T10" s="4">
         <f t="shared" si="0"/>
         <v>287.07700321300001</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1730,21 +1835,24 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
         <v>88</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>87</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>160</v>
       </c>
-      <c r="S11" s="4">
+      <c r="T11" s="4">
         <f t="shared" si="0"/>
         <v>272.089913631</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1790,21 +1898,24 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" t="s">
-        <v>7</v>
+      <c r="P12">
+        <v>0</v>
       </c>
       <c r="Q12" t="s">
         <v>7</v>
       </c>
       <c r="R12" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" t="s">
         <v>160</v>
       </c>
-      <c r="S12" s="4">
+      <c r="T12" s="4">
         <f t="shared" si="0"/>
         <v>15.994914622</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1850,21 +1961,24 @@
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="R13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>160</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <f t="shared" si="0"/>
         <v>348.03624679400002</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -1910,21 +2024,24 @@
       <c r="O14">
         <v>1</v>
       </c>
-      <c r="P14" t="s">
-        <v>57</v>
+      <c r="P14">
+        <v>0</v>
       </c>
       <c r="Q14" t="s">
         <v>57</v>
       </c>
       <c r="R14" t="s">
-        <v>161</v>
-      </c>
-      <c r="S14" s="4">
+        <v>57</v>
+      </c>
+      <c r="S14" t="s">
+        <v>161</v>
+      </c>
+      <c r="T14" s="4">
         <f t="shared" si="0"/>
         <v>892.53531701000009</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1970,21 +2087,24 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="R15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>160</v>
       </c>
-      <c r="S15" s="4">
+      <c r="T15" s="4">
         <f t="shared" si="0"/>
         <v>284.07434685999999</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2030,18 +2150,21 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
         <v>152</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>152</v>
       </c>
-      <c r="S16" s="4">
+      <c r="T16" s="4">
         <f>B16*$B$1+C16*$C$1+D16*$D$1+E16*$E$1+F16*$F$1+G16*$G$1+H16*$H$1+I16*$I$1+J16*$J$1+K16*$K$1+L16*$L$1</f>
         <v>41.026549125000003</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2087,18 +2210,21 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
         <v>152</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>152</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <f>B17*$B$1+C17*$C$1+D17*$D$1+E17*$E$1+F17*$F$1+G17*$G$1+H17*$H$1+I17*$I$1+J17*$J$1+K17*$K$1+L17*$L$1</f>
         <v>59.013304364</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -2144,18 +2270,21 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
         <v>153</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>153</v>
       </c>
-      <c r="S18" s="4">
-        <f t="shared" ref="S18:S81" si="1">B18*$B$1+C18*$C$1+D18*$D$1+E18*$E$1+F18*$F$1+G18*$G$1+H18*$H$1+I18*$I$1+J18*$J$1+K18*$K$1+L18*$L$1+M18*$M$1+N18*$N$1+O18*$O$1</f>
+      <c r="T18" s="4">
+        <f t="shared" ref="T18:T81" si="1">B18*$B$1+C18*$C$1+D18*$D$1+E18*$E$1+F18*$F$1+G18*$G$1+H18*$H$1+I18*$I$1+J18*$J$1+K18*$K$1+L18*$L$1+M18*$M$1+N18*$N$1+O18*$O$1</f>
         <v>-1.00727646009076</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2201,18 +2330,21 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
         <v>153</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>153</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="4">
         <f t="shared" si="1"/>
         <v>59.013852943909242</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -2258,18 +2390,21 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
         <v>153</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>153</v>
       </c>
-      <c r="S20" s="4">
+      <c r="T20" s="4">
         <f t="shared" si="1"/>
         <v>34.969401286909246</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -2315,18 +2450,21 @@
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
         <v>153</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>153</v>
       </c>
-      <c r="S21" s="4">
+      <c r="T21" s="4">
         <f t="shared" si="1"/>
         <v>198.97555001490923</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -2372,18 +2510,21 @@
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
         <v>153</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>153</v>
       </c>
-      <c r="S22" s="4">
+      <c r="T22" s="4">
         <f t="shared" si="1"/>
         <v>223.02000167190926</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -2429,18 +2570,21 @@
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
         <v>153</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>153</v>
       </c>
-      <c r="S23" s="4">
+      <c r="T23" s="4">
         <f t="shared" si="1"/>
         <v>80.995797903909235</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -2486,18 +2630,21 @@
       <c r="O24">
         <v>0</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
         <v>153</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>153</v>
       </c>
-      <c r="S24" s="4">
+      <c r="T24" s="4">
         <f t="shared" si="1"/>
         <v>36.948605360909241</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -2543,18 +2690,21 @@
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
         <v>153</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>153</v>
       </c>
-      <c r="S25" s="4">
+      <c r="T25" s="4">
         <f t="shared" si="1"/>
         <v>20.974668499909239</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -2600,18 +2750,21 @@
       <c r="O26">
         <v>0</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
         <v>153</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>153</v>
       </c>
-      <c r="S26" s="4">
+      <c r="T26" s="4">
         <f t="shared" si="1"/>
         <v>56.951346246909246</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -2657,18 +2810,21 @@
       <c r="O27">
         <v>0</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
         <v>153</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>153</v>
       </c>
-      <c r="S27" s="4">
+      <c r="T27" s="4">
         <f t="shared" si="1"/>
         <v>116.97247565090925</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -2714,18 +2870,21 @@
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
         <v>153</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>153</v>
       </c>
-      <c r="S28" s="4">
+      <c r="T28" s="4">
         <f t="shared" si="1"/>
         <v>141.01692730790924</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
@@ -2771,18 +2930,21 @@
       <c r="O29">
         <v>0</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
         <v>154</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>154</v>
       </c>
-      <c r="S29" s="4">
+      <c r="T29" s="4">
         <f t="shared" si="1"/>
         <v>44.971166380090757</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
@@ -2828,18 +2990,21 @@
       <c r="O30">
         <v>0</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="s">
         <v>154</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>154</v>
       </c>
-      <c r="S30" s="4">
+      <c r="T30" s="4">
         <f t="shared" si="1"/>
         <v>1.00727646009076</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>23</v>
       </c>
@@ -2885,18 +3050,21 @@
       <c r="O31">
         <v>0</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
         <v>154</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>154</v>
       </c>
-      <c r="S31" s="4">
+      <c r="T31" s="4">
         <f t="shared" si="1"/>
         <v>38.963158281090756</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>24</v>
       </c>
@@ -2942,18 +3110,21 @@
       <c r="O32">
         <v>0</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
         <v>154</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>154</v>
       </c>
-      <c r="S32" s="4">
+      <c r="T32" s="4">
         <f t="shared" si="1"/>
         <v>22.989221420090761</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
@@ -2999,18 +3170,21 @@
       <c r="O33">
         <v>0</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
         <v>154</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>154</v>
       </c>
-      <c r="S33" s="4">
+      <c r="T33" s="4">
         <f t="shared" si="1"/>
         <v>59.060374710090763</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
@@ -3056,18 +3230,21 @@
       <c r="O34">
         <v>0</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
         <v>154</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>154</v>
       </c>
-      <c r="S34" s="4">
+      <c r="T34" s="4">
         <f t="shared" si="1"/>
         <v>18.03382558509076</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
@@ -3113,18 +3290,21 @@
       <c r="O35">
         <v>0</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
         <v>154</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>154</v>
       </c>
-      <c r="S35" s="4">
+      <c r="T35" s="4">
         <f t="shared" si="1"/>
         <v>104.99229578409077</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
@@ -3170,18 +3350,21 @@
       <c r="O36">
         <v>0</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
         <v>154</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>154</v>
       </c>
-      <c r="S36" s="4">
+      <c r="T36" s="4">
         <f t="shared" si="1"/>
         <v>80.947844127090775</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>28</v>
       </c>
@@ -3227,18 +3410,21 @@
       <c r="O37">
         <v>0</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
         <v>154</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>154</v>
       </c>
-      <c r="S37" s="4">
+      <c r="T37" s="4">
         <f t="shared" si="1"/>
         <v>100.08692383509077</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,21 +3470,24 @@
       <c r="O38">
         <v>0</v>
       </c>
-      <c r="P38" t="s">
-        <v>20</v>
+      <c r="P38">
+        <v>0</v>
       </c>
       <c r="Q38" t="s">
         <v>20</v>
       </c>
       <c r="R38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S38" t="s">
         <v>160</v>
       </c>
-      <c r="S38" s="4">
+      <c r="T38" s="4">
         <f t="shared" si="1"/>
         <v>137.00861293200001</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
@@ -3344,21 +3533,24 @@
       <c r="O39">
         <v>0</v>
       </c>
-      <c r="P39" t="s">
-        <v>57</v>
+      <c r="P39">
+        <v>0</v>
       </c>
       <c r="Q39" t="s">
         <v>57</v>
       </c>
       <c r="R39" t="s">
-        <v>161</v>
-      </c>
-      <c r="S39" s="4">
+        <v>57</v>
+      </c>
+      <c r="S39" t="s">
+        <v>161</v>
+      </c>
+      <c r="T39" s="4">
         <f t="shared" si="1"/>
         <v>744.46011953599998</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>60</v>
       </c>
@@ -3404,21 +3596,24 @@
       <c r="O40">
         <v>0</v>
       </c>
-      <c r="P40" t="s">
-        <v>57</v>
+      <c r="P40">
+        <v>0</v>
       </c>
       <c r="Q40" t="s">
         <v>57</v>
       </c>
       <c r="R40" t="s">
-        <v>161</v>
-      </c>
-      <c r="S40" s="4">
+        <v>57</v>
+      </c>
+      <c r="S40" t="s">
+        <v>161</v>
+      </c>
+      <c r="T40" s="4">
         <f t="shared" si="1"/>
         <v>772.49141969599998</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>61</v>
       </c>
@@ -3464,21 +3659,24 @@
       <c r="O41">
         <v>0</v>
       </c>
-      <c r="P41" t="s">
-        <v>57</v>
+      <c r="P41">
+        <v>0</v>
       </c>
       <c r="Q41" t="s">
         <v>57</v>
       </c>
       <c r="R41" t="s">
-        <v>161</v>
-      </c>
-      <c r="S41" s="4">
+        <v>57</v>
+      </c>
+      <c r="S41" t="s">
+        <v>161</v>
+      </c>
+      <c r="T41" s="4">
         <f t="shared" si="1"/>
         <v>564.39673132400003</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>62</v>
       </c>
@@ -3524,21 +3722,24 @@
       <c r="O42">
         <v>0</v>
       </c>
-      <c r="P42" t="s">
-        <v>57</v>
+      <c r="P42">
+        <v>0</v>
       </c>
       <c r="Q42" t="s">
         <v>57</v>
       </c>
       <c r="R42" t="s">
-        <v>161</v>
-      </c>
-      <c r="S42" s="4">
+        <v>57</v>
+      </c>
+      <c r="S42" t="s">
+        <v>161</v>
+      </c>
+      <c r="T42" s="4">
         <f t="shared" si="1"/>
         <v>536.43820224000001</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>63</v>
       </c>
@@ -3584,21 +3785,24 @@
       <c r="O43">
         <v>0</v>
       </c>
-      <c r="P43" t="s">
-        <v>57</v>
+      <c r="P43">
+        <v>0</v>
       </c>
       <c r="Q43" t="s">
         <v>57</v>
       </c>
       <c r="R43" t="s">
-        <v>161</v>
-      </c>
-      <c r="S43" s="4">
+        <v>57</v>
+      </c>
+      <c r="S43" t="s">
+        <v>161</v>
+      </c>
+      <c r="T43" s="4">
         <f t="shared" si="1"/>
         <v>536.43820224000001</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>64</v>
       </c>
@@ -3644,21 +3848,24 @@
       <c r="O44">
         <v>1</v>
       </c>
-      <c r="P44" t="s">
-        <v>57</v>
+      <c r="P44">
+        <v>0</v>
       </c>
       <c r="Q44" t="s">
         <v>57</v>
       </c>
       <c r="R44" t="s">
-        <v>161</v>
-      </c>
-      <c r="S44" s="4">
+        <v>57</v>
+      </c>
+      <c r="S44" t="s">
+        <v>161</v>
+      </c>
+      <c r="T44" s="4">
         <f t="shared" si="1"/>
         <v>906.5145815520001</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>65</v>
       </c>
@@ -3704,21 +3911,24 @@
       <c r="O45">
         <v>1</v>
       </c>
-      <c r="P45" t="s">
-        <v>57</v>
+      <c r="P45">
+        <v>0</v>
       </c>
       <c r="Q45" t="s">
         <v>57</v>
       </c>
       <c r="R45" t="s">
-        <v>161</v>
-      </c>
-      <c r="S45" s="4">
+        <v>57</v>
+      </c>
+      <c r="S45" t="s">
+        <v>161</v>
+      </c>
+      <c r="T45" s="4">
         <f t="shared" si="1"/>
         <v>608.19101525000008</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -3764,21 +3974,24 @@
       <c r="O46">
         <v>1</v>
       </c>
-      <c r="P46" t="s">
-        <v>57</v>
+      <c r="P46">
+        <v>0</v>
       </c>
       <c r="Q46" t="s">
         <v>57</v>
       </c>
       <c r="R46" t="s">
-        <v>161</v>
-      </c>
-      <c r="S46" s="4">
+        <v>57</v>
+      </c>
+      <c r="S46" t="s">
+        <v>161</v>
+      </c>
+      <c r="T46" s="4">
         <f t="shared" si="1"/>
         <v>652.18084449399998</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>67</v>
       </c>
@@ -3824,21 +4037,24 @@
       <c r="O47">
         <v>1</v>
       </c>
-      <c r="P47" t="s">
-        <v>57</v>
+      <c r="P47">
+        <v>0</v>
       </c>
       <c r="Q47" t="s">
         <v>57</v>
       </c>
       <c r="R47" t="s">
-        <v>161</v>
-      </c>
-      <c r="S47" s="4">
+        <v>57</v>
+      </c>
+      <c r="S47" t="s">
+        <v>161</v>
+      </c>
+      <c r="T47" s="4">
         <f t="shared" si="1"/>
         <v>614.23796548999997</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>68</v>
       </c>
@@ -3884,21 +4100,24 @@
       <c r="O48">
         <v>0</v>
       </c>
-      <c r="P48" t="s">
-        <v>57</v>
+      <c r="P48">
+        <v>0</v>
       </c>
       <c r="Q48" t="s">
         <v>57</v>
       </c>
       <c r="R48" t="s">
-        <v>161</v>
-      </c>
-      <c r="S48" s="4">
+        <v>57</v>
+      </c>
+      <c r="S48" t="s">
+        <v>161</v>
+      </c>
+      <c r="T48" s="4">
         <f t="shared" si="1"/>
         <v>550.41746678200002</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>69</v>
       </c>
@@ -3944,21 +4163,24 @@
       <c r="O49">
         <v>0</v>
       </c>
-      <c r="P49" t="s">
-        <v>57</v>
+      <c r="P49">
+        <v>0</v>
       </c>
       <c r="Q49" t="s">
         <v>57</v>
       </c>
       <c r="R49" t="s">
-        <v>161</v>
-      </c>
-      <c r="S49" s="4">
+        <v>57</v>
+      </c>
+      <c r="S49" t="s">
+        <v>161</v>
+      </c>
+      <c r="T49" s="4">
         <f t="shared" si="1"/>
         <v>582.40729602600004</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>70</v>
       </c>
@@ -4004,21 +4226,24 @@
       <c r="O50">
         <v>0</v>
       </c>
-      <c r="P50" t="s">
-        <v>57</v>
+      <c r="P50">
+        <v>0</v>
       </c>
       <c r="Q50" t="s">
         <v>57</v>
       </c>
       <c r="R50" t="s">
-        <v>161</v>
-      </c>
-      <c r="S50" s="4">
+        <v>57</v>
+      </c>
+      <c r="S50" t="s">
+        <v>161</v>
+      </c>
+      <c r="T50" s="4">
         <f t="shared" si="1"/>
         <v>566.41238140400003</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>71</v>
       </c>
@@ -4064,21 +4289,24 @@
       <c r="O51">
         <v>0</v>
       </c>
-      <c r="P51" t="s">
-        <v>57</v>
+      <c r="P51">
+        <v>0</v>
       </c>
       <c r="Q51" t="s">
         <v>57</v>
       </c>
       <c r="R51" t="s">
-        <v>161</v>
-      </c>
-      <c r="S51" s="4">
+        <v>57</v>
+      </c>
+      <c r="S51" t="s">
+        <v>161</v>
+      </c>
+      <c r="T51" s="4">
         <f t="shared" si="1"/>
         <v>550.41746678200002</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>72</v>
       </c>
@@ -4124,21 +4352,24 @@
       <c r="O52">
         <v>0</v>
       </c>
-      <c r="P52" t="s">
-        <v>57</v>
+      <c r="P52">
+        <v>0</v>
       </c>
       <c r="Q52" t="s">
         <v>57</v>
       </c>
       <c r="R52" t="s">
-        <v>161</v>
-      </c>
-      <c r="S52" s="4">
+        <v>57</v>
+      </c>
+      <c r="S52" t="s">
+        <v>161</v>
+      </c>
+      <c r="T52" s="4">
         <f t="shared" si="1"/>
         <v>658.42334005199996</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>73</v>
       </c>
@@ -4184,21 +4415,24 @@
       <c r="O53">
         <v>0</v>
       </c>
-      <c r="P53" t="s">
-        <v>57</v>
+      <c r="P53">
+        <v>0</v>
       </c>
       <c r="Q53" t="s">
         <v>57</v>
       </c>
       <c r="R53" t="s">
-        <v>161</v>
-      </c>
-      <c r="S53" s="4">
+        <v>57</v>
+      </c>
+      <c r="S53" t="s">
+        <v>161</v>
+      </c>
+      <c r="T53" s="4">
         <f t="shared" si="1"/>
         <v>568.42803148400003</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>74</v>
       </c>
@@ -4244,21 +4478,24 @@
       <c r="O54">
         <v>0</v>
       </c>
-      <c r="P54" s="1" t="s">
-        <v>57</v>
+      <c r="P54">
+        <v>0</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R54" t="s">
-        <v>161</v>
-      </c>
-      <c r="S54" s="4">
+      <c r="R54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S54" t="s">
+        <v>161</v>
+      </c>
+      <c r="T54" s="4">
         <f t="shared" si="1"/>
         <v>600.41786072800005</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>75</v>
       </c>
@@ -4304,21 +4541,24 @@
       <c r="O55">
         <v>0</v>
       </c>
-      <c r="P55" s="1" t="s">
-        <v>57</v>
+      <c r="P55">
+        <v>0</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R55" t="s">
-        <v>161</v>
-      </c>
-      <c r="S55" s="4">
+      <c r="R55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S55" t="s">
+        <v>161</v>
+      </c>
+      <c r="T55" s="4">
         <f t="shared" si="1"/>
         <v>630.35565435399997</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>76</v>
       </c>
@@ -4364,21 +4604,24 @@
       <c r="O56">
         <v>0</v>
       </c>
-      <c r="P56" s="1" t="s">
-        <v>57</v>
+      <c r="P56">
+        <v>0</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R56" t="s">
-        <v>161</v>
-      </c>
-      <c r="S56" s="4">
+      <c r="R56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S56" t="s">
+        <v>161</v>
+      </c>
+      <c r="T56" s="4">
         <f t="shared" si="1"/>
         <v>870.56592208999996</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>77</v>
       </c>
@@ -4424,21 +4667,24 @@
       <c r="O57">
         <v>0</v>
       </c>
-      <c r="P57" s="1" t="s">
-        <v>57</v>
+      <c r="P57">
+        <v>0</v>
       </c>
       <c r="Q57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R57" t="s">
-        <v>161</v>
-      </c>
-      <c r="S57" s="4">
+      <c r="R57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S57" t="s">
+        <v>161</v>
+      </c>
+      <c r="T57" s="4">
         <f t="shared" si="1"/>
         <v>600.41786072800005</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>78</v>
       </c>
@@ -4484,21 +4730,24 @@
       <c r="O58">
         <v>0</v>
       </c>
-      <c r="P58" s="1" t="s">
-        <v>57</v>
+      <c r="P58">
+        <v>0</v>
       </c>
       <c r="Q58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R58" t="s">
-        <v>161</v>
-      </c>
-      <c r="S58" s="4">
+      <c r="R58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S58" t="s">
+        <v>161</v>
+      </c>
+      <c r="T58" s="4">
         <f t="shared" si="1"/>
         <v>600.41786072800005</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>79</v>
       </c>
@@ -4544,21 +4793,24 @@
       <c r="O59">
         <v>0</v>
       </c>
-      <c r="P59" s="1" t="s">
-        <v>57</v>
+      <c r="P59">
+        <v>0</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R59" t="s">
-        <v>161</v>
-      </c>
-      <c r="S59" s="4">
+      <c r="R59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S59" t="s">
+        <v>161</v>
+      </c>
+      <c r="T59" s="4">
         <f t="shared" si="1"/>
         <v>568.42803148400003</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>91</v>
       </c>
@@ -4604,21 +4856,24 @@
       <c r="O60">
         <v>0</v>
       </c>
-      <c r="P60" t="s">
-        <v>140</v>
+      <c r="P60">
+        <v>0</v>
       </c>
       <c r="Q60" t="s">
         <v>140</v>
       </c>
       <c r="R60" t="s">
-        <v>161</v>
-      </c>
-      <c r="S60" s="4">
+        <v>140</v>
+      </c>
+      <c r="S60" t="s">
+        <v>161</v>
+      </c>
+      <c r="T60" s="4">
         <f t="shared" si="1"/>
         <v>544.14230729799999</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>92</v>
       </c>
@@ -4664,21 +4919,24 @@
       <c r="O61">
         <v>0</v>
       </c>
-      <c r="P61" t="s">
-        <v>141</v>
+      <c r="P61">
+        <v>0</v>
       </c>
       <c r="Q61" t="s">
         <v>141</v>
       </c>
       <c r="R61" t="s">
-        <v>161</v>
-      </c>
-      <c r="S61" s="4">
+        <v>141</v>
+      </c>
+      <c r="S61" t="s">
+        <v>161</v>
+      </c>
+      <c r="T61" s="4">
         <f t="shared" si="1"/>
         <v>546.15795737799999</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>93</v>
       </c>
@@ -4724,22 +4982,25 @@
       <c r="O62">
         <v>0</v>
       </c>
-      <c r="P62" t="s">
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="s">
         <v>82</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>93</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>160</v>
       </c>
-      <c r="S62" s="4">
+      <c r="T62" s="4">
         <f t="shared" si="1"/>
         <v>311.08524590499997</v>
       </c>
-      <c r="T62" s="4"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="4"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>94</v>
       </c>
@@ -4785,22 +5046,25 @@
       <c r="O63">
         <v>0</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="s">
         <v>82</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>94</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>160</v>
       </c>
-      <c r="S63" s="4">
+      <c r="T63" s="4">
         <f t="shared" si="1"/>
         <v>304.03817485799999</v>
       </c>
-      <c r="T63" s="4"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="4"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>101</v>
       </c>
@@ -4846,22 +5110,25 @@
       <c r="O64">
         <v>0</v>
       </c>
-      <c r="P64" t="s">
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="s">
         <v>82</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>101</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>160</v>
       </c>
-      <c r="S64" s="4">
+      <c r="T64" s="4">
         <f t="shared" si="1"/>
         <v>298.07223838599998</v>
       </c>
-      <c r="T64" s="4"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="4"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>95</v>
       </c>
@@ -4907,22 +5174,25 @@
       <c r="O65">
         <v>0</v>
       </c>
-      <c r="P65" t="s">
-        <v>95</v>
+      <c r="P65">
+        <v>0</v>
       </c>
       <c r="Q65" t="s">
         <v>95</v>
       </c>
       <c r="R65" t="s">
-        <v>161</v>
-      </c>
-      <c r="S65" s="4">
+        <v>95</v>
+      </c>
+      <c r="S65" t="s">
+        <v>161</v>
+      </c>
+      <c r="T65" s="4">
         <f t="shared" si="1"/>
         <v>803.64864878499998</v>
       </c>
-      <c r="T65" s="4"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="4"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>96</v>
       </c>
@@ -4968,22 +5238,25 @@
       <c r="O66">
         <v>0</v>
       </c>
-      <c r="P66" t="s">
-        <v>96</v>
+      <c r="P66">
+        <v>0</v>
       </c>
       <c r="Q66" t="s">
         <v>96</v>
       </c>
       <c r="R66" t="s">
-        <v>161</v>
-      </c>
-      <c r="S66" s="4">
+        <v>96</v>
+      </c>
+      <c r="S66" t="s">
+        <v>161</v>
+      </c>
+      <c r="T66" s="4">
         <f t="shared" si="1"/>
         <v>869.65921348699999</v>
       </c>
-      <c r="T66" s="4"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="4"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>97</v>
       </c>
@@ -5029,22 +5302,25 @@
       <c r="O67">
         <v>0</v>
       </c>
-      <c r="P67" t="s">
-        <v>97</v>
+      <c r="P67">
+        <v>0</v>
       </c>
       <c r="Q67" t="s">
         <v>97</v>
       </c>
       <c r="R67" t="s">
-        <v>161</v>
-      </c>
-      <c r="S67" s="4">
+        <v>97</v>
+      </c>
+      <c r="S67" t="s">
+        <v>161</v>
+      </c>
+      <c r="T67" s="4">
         <f t="shared" si="1"/>
         <v>805.60678392299997</v>
       </c>
-      <c r="T67" s="4"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="4"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>98</v>
       </c>
@@ -5090,22 +5366,25 @@
       <c r="O68">
         <v>0</v>
       </c>
-      <c r="P68" t="s">
-        <v>99</v>
+      <c r="P68">
+        <v>0</v>
       </c>
       <c r="Q68" t="s">
         <v>99</v>
       </c>
       <c r="R68" t="s">
-        <v>161</v>
-      </c>
-      <c r="S68" s="4">
+        <v>99</v>
+      </c>
+      <c r="S68" t="s">
+        <v>161</v>
+      </c>
+      <c r="T68" s="4">
         <f t="shared" si="1"/>
         <v>801.66938424299997</v>
       </c>
-      <c r="T68" s="4"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="4"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>100</v>
       </c>
@@ -5151,22 +5430,25 @@
       <c r="O69">
         <v>0</v>
       </c>
-      <c r="P69" t="s">
-        <v>99</v>
+      <c r="P69">
+        <v>0</v>
       </c>
       <c r="Q69" t="s">
         <v>99</v>
       </c>
       <c r="R69" t="s">
-        <v>161</v>
-      </c>
-      <c r="S69" s="4">
+        <v>99</v>
+      </c>
+      <c r="S69" t="s">
+        <v>161</v>
+      </c>
+      <c r="T69" s="4">
         <f t="shared" si="1"/>
         <v>799.65373416299997</v>
       </c>
-      <c r="T69" s="4"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="4"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>102</v>
       </c>
@@ -5212,22 +5494,25 @@
       <c r="O70">
         <v>0</v>
       </c>
-      <c r="P70" t="s">
-        <v>103</v>
+      <c r="P70">
+        <v>0</v>
       </c>
       <c r="Q70" t="s">
         <v>103</v>
       </c>
       <c r="R70" t="s">
-        <v>161</v>
-      </c>
-      <c r="S70" s="4">
+        <v>103</v>
+      </c>
+      <c r="S70" t="s">
+        <v>161</v>
+      </c>
+      <c r="T70" s="4">
         <f t="shared" si="1"/>
         <v>637.60091065300003</v>
       </c>
-      <c r="T70" s="4"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="4"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>104</v>
       </c>
@@ -5273,22 +5558,25 @@
       <c r="O71">
         <v>0</v>
       </c>
-      <c r="P71" t="s">
-        <v>103</v>
+      <c r="P71">
+        <v>0</v>
       </c>
       <c r="Q71" t="s">
         <v>103</v>
       </c>
       <c r="R71" t="s">
-        <v>161</v>
-      </c>
-      <c r="S71" s="4">
+        <v>103</v>
+      </c>
+      <c r="S71" t="s">
+        <v>161</v>
+      </c>
+      <c r="T71" s="4">
         <f t="shared" si="1"/>
         <v>635.58526057300003</v>
       </c>
-      <c r="T71" s="4"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="4"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>122</v>
       </c>
@@ -5334,22 +5622,25 @@
       <c r="O72">
         <v>0</v>
       </c>
-      <c r="P72" t="s">
-        <v>105</v>
+      <c r="P72">
+        <v>0</v>
       </c>
       <c r="Q72" t="s">
         <v>105</v>
       </c>
       <c r="R72" t="s">
-        <v>161</v>
-      </c>
-      <c r="S72" s="4">
+        <v>105</v>
+      </c>
+      <c r="S72" t="s">
+        <v>161</v>
+      </c>
+      <c r="T72" s="4">
         <f t="shared" si="1"/>
         <v>781.60678392299997</v>
       </c>
-      <c r="T72" s="4"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="4"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>123</v>
       </c>
@@ -5395,22 +5686,25 @@
       <c r="O73">
         <v>0</v>
       </c>
-      <c r="P73" t="s">
-        <v>105</v>
+      <c r="P73">
+        <v>0</v>
       </c>
       <c r="Q73" t="s">
         <v>105</v>
       </c>
       <c r="R73" t="s">
-        <v>161</v>
-      </c>
-      <c r="S73" s="4">
+        <v>105</v>
+      </c>
+      <c r="S73" t="s">
+        <v>161</v>
+      </c>
+      <c r="T73" s="4">
         <f t="shared" si="1"/>
         <v>783.62243400299997</v>
       </c>
-      <c r="T73" s="4"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="4"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>124</v>
       </c>
@@ -5456,22 +5750,25 @@
       <c r="O74">
         <v>0</v>
       </c>
-      <c r="P74" t="s">
-        <v>105</v>
+      <c r="P74">
+        <v>0</v>
       </c>
       <c r="Q74" t="s">
         <v>105</v>
       </c>
       <c r="R74" t="s">
-        <v>161</v>
-      </c>
-      <c r="S74" s="4">
+        <v>105</v>
+      </c>
+      <c r="S74" t="s">
+        <v>161</v>
+      </c>
+      <c r="T74" s="4">
         <f t="shared" si="1"/>
         <v>767.59113384299997</v>
       </c>
-      <c r="T74" s="4"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="4"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>125</v>
       </c>
@@ -5517,22 +5814,25 @@
       <c r="O75">
         <v>0</v>
       </c>
-      <c r="P75" t="s">
-        <v>105</v>
+      <c r="P75">
+        <v>0</v>
       </c>
       <c r="Q75" t="s">
         <v>105</v>
       </c>
       <c r="R75" t="s">
-        <v>161</v>
-      </c>
-      <c r="S75" s="4">
+        <v>105</v>
+      </c>
+      <c r="S75" t="s">
+        <v>161</v>
+      </c>
+      <c r="T75" s="4">
         <f t="shared" si="1"/>
         <v>769.60678392299997</v>
       </c>
-      <c r="T75" s="4"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="4"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>126</v>
       </c>
@@ -5578,22 +5878,25 @@
       <c r="O76">
         <v>0</v>
       </c>
-      <c r="P76" t="s">
-        <v>105</v>
+      <c r="P76">
+        <v>0</v>
       </c>
       <c r="Q76" t="s">
         <v>105</v>
       </c>
       <c r="R76" t="s">
-        <v>161</v>
-      </c>
-      <c r="S76" s="4">
+        <v>105</v>
+      </c>
+      <c r="S76" t="s">
+        <v>161</v>
+      </c>
+      <c r="T76" s="4">
         <f t="shared" si="1"/>
         <v>753.57548376299997</v>
       </c>
-      <c r="T76" s="4"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="4"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>127</v>
       </c>
@@ -5639,22 +5942,25 @@
       <c r="O77">
         <v>0</v>
       </c>
-      <c r="P77" t="s">
-        <v>105</v>
+      <c r="P77">
+        <v>0</v>
       </c>
       <c r="Q77" t="s">
         <v>105</v>
       </c>
       <c r="R77" t="s">
-        <v>161</v>
-      </c>
-      <c r="S77" s="4">
+        <v>105</v>
+      </c>
+      <c r="S77" t="s">
+        <v>161</v>
+      </c>
+      <c r="T77" s="4">
         <f t="shared" si="1"/>
         <v>755.59113384299997</v>
       </c>
-      <c r="T77" s="4"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="4"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>128</v>
       </c>
@@ -5700,22 +6006,25 @@
       <c r="O78">
         <v>0</v>
       </c>
-      <c r="P78" t="s">
-        <v>105</v>
+      <c r="P78">
+        <v>0</v>
       </c>
       <c r="Q78" t="s">
         <v>105</v>
       </c>
       <c r="R78" t="s">
-        <v>161</v>
-      </c>
-      <c r="S78" s="4">
+        <v>105</v>
+      </c>
+      <c r="S78" t="s">
+        <v>161</v>
+      </c>
+      <c r="T78" s="4">
         <f t="shared" si="1"/>
         <v>739.55983368299997</v>
       </c>
-      <c r="T78" s="4"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U78" s="4"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>129</v>
       </c>
@@ -5761,22 +6070,25 @@
       <c r="O79">
         <v>0</v>
       </c>
-      <c r="P79" t="s">
-        <v>105</v>
+      <c r="P79">
+        <v>0</v>
       </c>
       <c r="Q79" t="s">
         <v>105</v>
       </c>
       <c r="R79" t="s">
-        <v>161</v>
-      </c>
-      <c r="S79" s="4">
+        <v>105</v>
+      </c>
+      <c r="S79" t="s">
+        <v>161</v>
+      </c>
+      <c r="T79" s="4">
         <f t="shared" si="1"/>
         <v>741.57548376299997</v>
       </c>
-      <c r="T79" s="4"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U79" s="4"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>130</v>
       </c>
@@ -5822,22 +6134,25 @@
       <c r="O80">
         <v>0</v>
       </c>
-      <c r="P80" t="s">
-        <v>105</v>
+      <c r="P80">
+        <v>0</v>
       </c>
       <c r="Q80" t="s">
         <v>105</v>
       </c>
       <c r="R80" t="s">
-        <v>161</v>
-      </c>
-      <c r="S80" s="4">
+        <v>105</v>
+      </c>
+      <c r="S80" t="s">
+        <v>161</v>
+      </c>
+      <c r="T80" s="4">
         <f t="shared" si="1"/>
         <v>725.54418360299996</v>
       </c>
-      <c r="T80" s="4"/>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="4"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>131</v>
       </c>
@@ -5883,22 +6198,25 @@
       <c r="O81">
         <v>0</v>
       </c>
-      <c r="P81" t="s">
-        <v>105</v>
+      <c r="P81">
+        <v>0</v>
       </c>
       <c r="Q81" t="s">
         <v>105</v>
       </c>
       <c r="R81" t="s">
-        <v>161</v>
-      </c>
-      <c r="S81" s="4">
+        <v>105</v>
+      </c>
+      <c r="S81" t="s">
+        <v>161</v>
+      </c>
+      <c r="T81" s="4">
         <f t="shared" si="1"/>
         <v>727.55983368299997</v>
       </c>
-      <c r="T81" s="4"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="4"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>132</v>
       </c>
@@ -5944,22 +6262,25 @@
       <c r="O82">
         <v>0</v>
       </c>
-      <c r="P82" t="s">
-        <v>105</v>
+      <c r="P82">
+        <v>0</v>
       </c>
       <c r="Q82" t="s">
         <v>105</v>
       </c>
       <c r="R82" t="s">
-        <v>161</v>
-      </c>
-      <c r="S82" s="4">
-        <f t="shared" ref="S82:S101" si="2">B82*$B$1+C82*$C$1+D82*$D$1+E82*$E$1+F82*$F$1+G82*$G$1+H82*$H$1+I82*$I$1+J82*$J$1+K82*$K$1+L82*$L$1+M82*$M$1+N82*$N$1+O82*$O$1</f>
+        <v>105</v>
+      </c>
+      <c r="S82" t="s">
+        <v>161</v>
+      </c>
+      <c r="T82" s="4">
+        <f t="shared" ref="T82:T101" si="2">B82*$B$1+C82*$C$1+D82*$D$1+E82*$E$1+F82*$F$1+G82*$G$1+H82*$H$1+I82*$I$1+J82*$J$1+K82*$K$1+L82*$L$1+M82*$M$1+N82*$N$1+O82*$O$1</f>
         <v>711.52853352299996</v>
       </c>
-      <c r="T82" s="4"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="4"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>133</v>
       </c>
@@ -6005,22 +6326,25 @@
       <c r="O83">
         <v>0</v>
       </c>
-      <c r="P83" t="s">
-        <v>105</v>
+      <c r="P83">
+        <v>0</v>
       </c>
       <c r="Q83" t="s">
         <v>105</v>
       </c>
       <c r="R83" t="s">
-        <v>161</v>
-      </c>
-      <c r="S83" s="4">
+        <v>105</v>
+      </c>
+      <c r="S83" t="s">
+        <v>161</v>
+      </c>
+      <c r="T83" s="4">
         <f t="shared" si="2"/>
         <v>713.54418360299996</v>
       </c>
-      <c r="T83" s="4"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="4"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>134</v>
       </c>
@@ -6066,22 +6390,25 @@
       <c r="O84">
         <v>0</v>
       </c>
-      <c r="P84" t="s">
-        <v>105</v>
+      <c r="P84">
+        <v>0</v>
       </c>
       <c r="Q84" t="s">
         <v>105</v>
       </c>
       <c r="R84" t="s">
-        <v>161</v>
-      </c>
-      <c r="S84" s="4">
+        <v>105</v>
+      </c>
+      <c r="S84" t="s">
+        <v>161</v>
+      </c>
+      <c r="T84" s="4">
         <f t="shared" si="2"/>
         <v>697.51288344299996</v>
       </c>
-      <c r="T84" s="4"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="4"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>135</v>
       </c>
@@ -6127,22 +6454,25 @@
       <c r="O85">
         <v>0</v>
       </c>
-      <c r="P85" t="s">
-        <v>105</v>
+      <c r="P85">
+        <v>0</v>
       </c>
       <c r="Q85" t="s">
         <v>105</v>
       </c>
       <c r="R85" t="s">
-        <v>161</v>
-      </c>
-      <c r="S85" s="4">
+        <v>105</v>
+      </c>
+      <c r="S85" t="s">
+        <v>161</v>
+      </c>
+      <c r="T85" s="4">
         <f t="shared" si="2"/>
         <v>699.52853352299996</v>
       </c>
-      <c r="T85" s="4"/>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="4"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>106</v>
       </c>
@@ -6188,22 +6518,25 @@
       <c r="O86">
         <v>0</v>
       </c>
-      <c r="P86" t="s">
-        <v>148</v>
+      <c r="P86">
+        <v>0</v>
       </c>
       <c r="Q86" t="s">
         <v>148</v>
       </c>
       <c r="R86" t="s">
-        <v>161</v>
-      </c>
-      <c r="S86" s="4">
+        <v>148</v>
+      </c>
+      <c r="S86" t="s">
+        <v>161</v>
+      </c>
+      <c r="T86" s="4">
         <f t="shared" si="2"/>
         <v>748.61583244400003</v>
       </c>
-      <c r="T86" s="4"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="4"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>107</v>
       </c>
@@ -6249,22 +6582,25 @@
       <c r="O87">
         <v>0</v>
       </c>
-      <c r="P87" t="s">
-        <v>149</v>
+      <c r="P87">
+        <v>0</v>
       </c>
       <c r="Q87" t="s">
         <v>149</v>
       </c>
       <c r="R87" t="s">
-        <v>161</v>
-      </c>
-      <c r="S87" s="4">
+        <v>149</v>
+      </c>
+      <c r="S87" t="s">
+        <v>161</v>
+      </c>
+      <c r="T87" s="4">
         <f t="shared" si="2"/>
         <v>764.61074706600004</v>
       </c>
-      <c r="T87" s="4"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="4"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>108</v>
       </c>
@@ -6310,22 +6646,25 @@
       <c r="O88">
         <v>0</v>
       </c>
-      <c r="P88" t="s">
-        <v>150</v>
+      <c r="P88">
+        <v>0</v>
       </c>
       <c r="Q88" t="s">
         <v>150</v>
       </c>
       <c r="R88" t="s">
-        <v>161</v>
-      </c>
-      <c r="S88" s="4">
+        <v>150</v>
+      </c>
+      <c r="S88" t="s">
+        <v>161</v>
+      </c>
+      <c r="T88" s="4">
         <f t="shared" si="2"/>
         <v>780.60566168800005</v>
       </c>
-      <c r="T88" s="4"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="4"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>109</v>
       </c>
@@ -6371,22 +6710,25 @@
       <c r="O89">
         <v>0</v>
       </c>
-      <c r="P89" t="s">
-        <v>139</v>
+      <c r="P89">
+        <v>0</v>
       </c>
       <c r="Q89" t="s">
         <v>139</v>
       </c>
       <c r="R89" t="s">
-        <v>161</v>
-      </c>
-      <c r="S89" s="4">
+        <v>139</v>
+      </c>
+      <c r="S89" t="s">
+        <v>161</v>
+      </c>
+      <c r="T89" s="4">
         <f t="shared" si="2"/>
         <v>250.12050920799999</v>
       </c>
-      <c r="T89" s="4"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="4"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>110</v>
       </c>
@@ -6432,22 +6774,25 @@
       <c r="O90">
         <v>0</v>
       </c>
-      <c r="P90" t="s">
-        <v>139</v>
+      <c r="P90">
+        <v>0</v>
       </c>
       <c r="Q90" t="s">
         <v>139</v>
       </c>
       <c r="R90" t="s">
-        <v>161</v>
-      </c>
-      <c r="S90" s="4">
+        <v>139</v>
+      </c>
+      <c r="S90" t="s">
+        <v>161</v>
+      </c>
+      <c r="T90" s="4">
         <f t="shared" si="2"/>
         <v>318.18310952799999</v>
       </c>
-      <c r="T90" s="4"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="4"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>111</v>
       </c>
@@ -6493,22 +6838,25 @@
       <c r="O91">
         <v>0</v>
       </c>
-      <c r="P91" t="s">
-        <v>139</v>
+      <c r="P91">
+        <v>0</v>
       </c>
       <c r="Q91" t="s">
         <v>139</v>
       </c>
       <c r="R91" t="s">
-        <v>161</v>
-      </c>
-      <c r="S91" s="4">
+        <v>139</v>
+      </c>
+      <c r="S91" t="s">
+        <v>161</v>
+      </c>
+      <c r="T91" s="4">
         <f t="shared" si="2"/>
         <v>386.24570984799999</v>
       </c>
-      <c r="T91" s="4"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="4"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>112</v>
       </c>
@@ -6554,22 +6902,25 @@
       <c r="O92">
         <v>0</v>
       </c>
-      <c r="P92" t="s">
-        <v>139</v>
+      <c r="P92">
+        <v>0</v>
       </c>
       <c r="Q92" t="s">
         <v>139</v>
       </c>
       <c r="R92" t="s">
-        <v>161</v>
-      </c>
-      <c r="S92" s="4">
+        <v>139</v>
+      </c>
+      <c r="S92" t="s">
+        <v>161</v>
+      </c>
+      <c r="T92" s="4">
         <f t="shared" si="2"/>
         <v>454.30831016799999</v>
       </c>
-      <c r="T92" s="4"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="4"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>113</v>
       </c>
@@ -6615,22 +6966,25 @@
       <c r="O93">
         <v>0</v>
       </c>
-      <c r="P93" t="s">
-        <v>139</v>
+      <c r="P93">
+        <v>0</v>
       </c>
       <c r="Q93" t="s">
         <v>139</v>
       </c>
       <c r="R93" t="s">
-        <v>161</v>
-      </c>
-      <c r="S93" s="4">
+        <v>139</v>
+      </c>
+      <c r="S93" t="s">
+        <v>161</v>
+      </c>
+      <c r="T93" s="4">
         <f t="shared" si="2"/>
         <v>522.37091048800005</v>
       </c>
-      <c r="T93" s="4"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="4"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>114</v>
       </c>
@@ -6676,22 +7030,25 @@
       <c r="O94">
         <v>0</v>
       </c>
-      <c r="P94" t="s">
-        <v>139</v>
+      <c r="P94">
+        <v>0</v>
       </c>
       <c r="Q94" t="s">
         <v>139</v>
       </c>
       <c r="R94" t="s">
-        <v>161</v>
-      </c>
-      <c r="S94" s="4">
+        <v>139</v>
+      </c>
+      <c r="S94" t="s">
+        <v>161</v>
+      </c>
+      <c r="T94" s="4">
         <f t="shared" si="2"/>
         <v>590.43351080800005</v>
       </c>
-      <c r="T94" s="4"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="4"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>115</v>
       </c>
@@ -6737,22 +7094,25 @@
       <c r="O95">
         <v>0</v>
       </c>
-      <c r="P95" t="s">
-        <v>139</v>
+      <c r="P95">
+        <v>0</v>
       </c>
       <c r="Q95" t="s">
         <v>139</v>
       </c>
       <c r="R95" t="s">
-        <v>161</v>
-      </c>
-      <c r="S95" s="4">
+        <v>139</v>
+      </c>
+      <c r="S95" t="s">
+        <v>161</v>
+      </c>
+      <c r="T95" s="4">
         <f t="shared" si="2"/>
         <v>658.49611112800005</v>
       </c>
-      <c r="T95" s="4"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="4"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>116</v>
       </c>
@@ -6798,22 +7158,25 @@
       <c r="O96">
         <v>0</v>
       </c>
-      <c r="P96" t="s">
-        <v>139</v>
+      <c r="P96">
+        <v>0</v>
       </c>
       <c r="Q96" t="s">
         <v>139</v>
       </c>
       <c r="R96" t="s">
-        <v>161</v>
-      </c>
-      <c r="S96" s="4">
+        <v>139</v>
+      </c>
+      <c r="S96" t="s">
+        <v>161</v>
+      </c>
+      <c r="T96" s="4">
         <f t="shared" si="2"/>
         <v>726.55871144800005</v>
       </c>
-      <c r="T96" s="4"/>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="4"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>117</v>
       </c>
@@ -6859,22 +7222,25 @@
       <c r="O97">
         <v>0</v>
       </c>
-      <c r="P97" t="s">
-        <v>139</v>
+      <c r="P97">
+        <v>0</v>
       </c>
       <c r="Q97" t="s">
         <v>139</v>
       </c>
       <c r="R97" t="s">
-        <v>161</v>
-      </c>
-      <c r="S97" s="4">
+        <v>139</v>
+      </c>
+      <c r="S97" t="s">
+        <v>161</v>
+      </c>
+      <c r="T97" s="4">
         <f t="shared" si="2"/>
         <v>794.62131176800006</v>
       </c>
-      <c r="T97" s="4"/>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="4"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>118</v>
       </c>
@@ -6920,22 +7286,25 @@
       <c r="O98">
         <v>0</v>
       </c>
-      <c r="P98" t="s">
-        <v>139</v>
+      <c r="P98">
+        <v>0</v>
       </c>
       <c r="Q98" t="s">
         <v>139</v>
       </c>
       <c r="R98" t="s">
-        <v>161</v>
-      </c>
-      <c r="S98" s="4">
+        <v>139</v>
+      </c>
+      <c r="S98" t="s">
+        <v>161</v>
+      </c>
+      <c r="T98" s="4">
         <f t="shared" si="2"/>
         <v>862.68391208800006</v>
       </c>
-      <c r="T98" s="4"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="4"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>119</v>
       </c>
@@ -6981,22 +7350,25 @@
       <c r="O99">
         <v>0</v>
       </c>
-      <c r="P99" t="s">
-        <v>139</v>
+      <c r="P99">
+        <v>0</v>
       </c>
       <c r="Q99" t="s">
         <v>139</v>
       </c>
       <c r="R99" t="s">
-        <v>161</v>
-      </c>
-      <c r="S99" s="4">
+        <v>139</v>
+      </c>
+      <c r="S99" t="s">
+        <v>161</v>
+      </c>
+      <c r="T99" s="4">
         <f t="shared" si="2"/>
         <v>930.74651240800006</v>
       </c>
-      <c r="T99" s="4"/>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="4"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>120</v>
       </c>
@@ -7042,22 +7414,25 @@
       <c r="O100">
         <v>0</v>
       </c>
-      <c r="P100" t="s">
-        <v>139</v>
+      <c r="P100">
+        <v>0</v>
       </c>
       <c r="Q100" t="s">
         <v>139</v>
       </c>
       <c r="R100" t="s">
-        <v>161</v>
-      </c>
-      <c r="S100" s="4">
+        <v>139</v>
+      </c>
+      <c r="S100" t="s">
+        <v>161</v>
+      </c>
+      <c r="T100" s="4">
         <f t="shared" si="2"/>
         <v>998.80911272800006</v>
       </c>
-      <c r="T100" s="4"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="4"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>121</v>
       </c>
@@ -7103,42 +7478,1533 @@
       <c r="O101">
         <v>0</v>
       </c>
-      <c r="P101" t="s">
-        <v>139</v>
+      <c r="P101">
+        <v>0</v>
       </c>
       <c r="Q101" t="s">
         <v>139</v>
       </c>
       <c r="R101" t="s">
-        <v>161</v>
-      </c>
-      <c r="S101" s="4">
+        <v>139</v>
+      </c>
+      <c r="S101" t="s">
+        <v>161</v>
+      </c>
+      <c r="T101" s="4">
         <f t="shared" si="2"/>
         <v>1066.8717130479999</v>
       </c>
-      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <v>36</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>6</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>6</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>173</v>
+      </c>
+      <c r="R102" t="s">
+        <v>173</v>
+      </c>
+      <c r="S102" t="s">
+        <v>161</v>
+      </c>
+      <c r="T102">
+        <f>462.146574-18.03383</f>
+        <v>444.11274399999996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B103">
+        <f>B102+2</f>
+        <v>14</v>
+      </c>
+      <c r="C103">
+        <f>C102+6</f>
+        <v>42</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <f>F102+1</f>
+        <v>7</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <f>P102+1</f>
+        <v>7</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>173</v>
+      </c>
+      <c r="R103" t="s">
+        <v>173</v>
+      </c>
+      <c r="S103" t="s">
+        <v>161</v>
+      </c>
+      <c r="T103" s="4">
+        <f>T102+74.01879</f>
+        <v>518.13153399999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ref="B104:B119" si="3">B103+2</f>
+        <v>16</v>
+      </c>
+      <c r="C104">
+        <f t="shared" ref="C104:C119" si="4">C103+6</f>
+        <v>48</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <f t="shared" ref="F104:F119" si="5">F103+1</f>
+        <v>8</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <f t="shared" ref="P104:P119" si="6">P103+1</f>
+        <v>8</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>173</v>
+      </c>
+      <c r="R104" t="s">
+        <v>173</v>
+      </c>
+      <c r="S104" t="s">
+        <v>161</v>
+      </c>
+      <c r="T104" s="4">
+        <f t="shared" ref="T104:T119" si="7">T103+74.01879</f>
+        <v>592.15032399999996</v>
+      </c>
+      <c r="U104" s="4"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>173</v>
+      </c>
+      <c r="R105" t="s">
+        <v>173</v>
+      </c>
+      <c r="S105" t="s">
+        <v>161</v>
+      </c>
+      <c r="T105" s="4">
+        <f t="shared" si="7"/>
+        <v>666.16911399999992</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>173</v>
+      </c>
+      <c r="R106" t="s">
+        <v>173</v>
+      </c>
+      <c r="S106" t="s">
+        <v>161</v>
+      </c>
+      <c r="T106" s="4">
+        <f t="shared" si="7"/>
+        <v>740.18790399999989</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>173</v>
+      </c>
+      <c r="R107" t="s">
+        <v>173</v>
+      </c>
+      <c r="S107" t="s">
+        <v>161</v>
+      </c>
+      <c r="T107" s="4">
+        <f t="shared" si="7"/>
+        <v>814.20669399999986</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>173</v>
+      </c>
+      <c r="R108" t="s">
+        <v>173</v>
+      </c>
+      <c r="S108" t="s">
+        <v>161</v>
+      </c>
+      <c r="T108" s="4">
+        <f t="shared" si="7"/>
+        <v>888.22548399999982</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>173</v>
+      </c>
+      <c r="R109" t="s">
+        <v>173</v>
+      </c>
+      <c r="S109" t="s">
+        <v>161</v>
+      </c>
+      <c r="T109" s="4">
+        <f t="shared" si="7"/>
+        <v>962.24427399999979</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>173</v>
+      </c>
+      <c r="R110" t="s">
+        <v>173</v>
+      </c>
+      <c r="S110" t="s">
+        <v>161</v>
+      </c>
+      <c r="T110" s="4">
+        <f t="shared" si="7"/>
+        <v>1036.2630639999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>173</v>
+      </c>
+      <c r="R111" t="s">
+        <v>173</v>
+      </c>
+      <c r="S111" t="s">
+        <v>161</v>
+      </c>
+      <c r="T111" s="4">
+        <f t="shared" si="7"/>
+        <v>1110.2818539999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>173</v>
+      </c>
+      <c r="R112" t="s">
+        <v>173</v>
+      </c>
+      <c r="S112" t="s">
+        <v>161</v>
+      </c>
+      <c r="T112" s="4">
+        <f t="shared" si="7"/>
+        <v>1184.3006439999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>173</v>
+      </c>
+      <c r="R113" t="s">
+        <v>173</v>
+      </c>
+      <c r="S113" t="s">
+        <v>161</v>
+      </c>
+      <c r="T113" s="4">
+        <f t="shared" si="7"/>
+        <v>1258.319434</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>173</v>
+      </c>
+      <c r="R114" t="s">
+        <v>173</v>
+      </c>
+      <c r="S114" t="s">
+        <v>161</v>
+      </c>
+      <c r="T114" s="4">
+        <f t="shared" si="7"/>
+        <v>1332.3382240000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>173</v>
+      </c>
+      <c r="R115" t="s">
+        <v>173</v>
+      </c>
+      <c r="S115" t="s">
+        <v>161</v>
+      </c>
+      <c r="T115" s="4">
+        <f t="shared" si="7"/>
+        <v>1406.3570140000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>173</v>
+      </c>
+      <c r="R116" t="s">
+        <v>173</v>
+      </c>
+      <c r="S116" t="s">
+        <v>161</v>
+      </c>
+      <c r="T116" s="4">
+        <f t="shared" si="7"/>
+        <v>1480.3758040000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>173</v>
+      </c>
+      <c r="R117" t="s">
+        <v>173</v>
+      </c>
+      <c r="S117" t="s">
+        <v>161</v>
+      </c>
+      <c r="T117" s="4">
+        <f t="shared" si="7"/>
+        <v>1554.3945940000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>173</v>
+      </c>
+      <c r="R118" t="s">
+        <v>173</v>
+      </c>
+      <c r="S118" t="s">
+        <v>161</v>
+      </c>
+      <c r="T118" s="4">
+        <f t="shared" si="7"/>
+        <v>1628.4133840000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>173</v>
+      </c>
+      <c r="R119" t="s">
+        <v>173</v>
+      </c>
+      <c r="S119" t="s">
+        <v>161</v>
+      </c>
+      <c r="T119" s="4">
+        <f t="shared" si="7"/>
+        <v>1702.4321740000005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ref="B120:B127" si="8">B119+2</f>
+        <v>48</v>
+      </c>
+      <c r="C120">
+        <f t="shared" ref="C120:C127" si="9">C119+6</f>
+        <v>144</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <f t="shared" ref="F120:F127" si="10">F119+1</f>
+        <v>24</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <f t="shared" ref="P120:P127" si="11">P119+1</f>
+        <v>24</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>173</v>
+      </c>
+      <c r="R120" t="s">
+        <v>173</v>
+      </c>
+      <c r="S120" t="s">
+        <v>161</v>
+      </c>
+      <c r="T120" s="4">
+        <f t="shared" ref="T120:T127" si="12">T119+74.01879</f>
+        <v>1776.4509640000006</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>173</v>
+      </c>
+      <c r="R121" t="s">
+        <v>173</v>
+      </c>
+      <c r="S121" t="s">
+        <v>161</v>
+      </c>
+      <c r="T121" s="4">
+        <f t="shared" si="12"/>
+        <v>1850.4697540000006</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="9"/>
+        <v>156</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>173</v>
+      </c>
+      <c r="R122" t="s">
+        <v>173</v>
+      </c>
+      <c r="S122" t="s">
+        <v>161</v>
+      </c>
+      <c r="T122" s="4">
+        <f t="shared" si="12"/>
+        <v>1924.4885440000007</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="9"/>
+        <v>162</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>173</v>
+      </c>
+      <c r="R123" t="s">
+        <v>173</v>
+      </c>
+      <c r="S123" t="s">
+        <v>161</v>
+      </c>
+      <c r="T123" s="4">
+        <f t="shared" si="12"/>
+        <v>1998.5073340000008</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="8"/>
+      <c r="T124" s="4"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="8"/>
+      <c r="T125" s="4"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="8"/>
+      <c r="T126" s="4"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="8"/>
+      <c r="T127" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R100"/>
+  <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.625" customWidth="1"/>
+    <col min="18" max="18" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>30</v>
       </c>
@@ -7181,17 +9047,20 @@
       <c r="O1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>90</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -7237,17 +9106,20 @@
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>52</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -7293,17 +9165,20 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" t="s">
-        <v>0</v>
-      </c>
       <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -7349,17 +9224,20 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>1</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -7405,17 +9283,20 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>2</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -7461,17 +9342,20 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>3</v>
       </c>
-      <c r="R6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -7517,17 +9401,20 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>4</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -7573,17 +9460,20 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>5</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -7629,17 +9519,20 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>6</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -7685,17 +9578,20 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>87</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -7741,17 +9637,20 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>7</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -7797,17 +9696,20 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="R12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -7853,17 +9755,20 @@
       <c r="O13">
         <v>1</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>57</v>
       </c>
-      <c r="R13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -7909,17 +9814,20 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="R14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -7965,14 +9873,17 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -8018,14 +9929,17 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -8071,14 +9985,17 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -8124,14 +10041,17 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -8177,14 +10097,17 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -8230,14 +10153,17 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -8283,14 +10209,17 @@
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
@@ -8336,14 +10265,17 @@
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -8389,14 +10321,17 @@
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -8442,14 +10377,17 @@
       <c r="O24">
         <v>0</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -8495,14 +10433,17 @@
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -8548,14 +10489,17 @@
       <c r="O26">
         <v>0</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -8601,14 +10545,17 @@
       <c r="O27">
         <v>0</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -8654,14 +10601,17 @@
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -8707,14 +10657,17 @@
       <c r="O29">
         <v>0</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>23</v>
       </c>
@@ -8760,14 +10713,17 @@
       <c r="O30">
         <v>0</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
@@ -8813,14 +10769,17 @@
       <c r="O31">
         <v>0</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
@@ -8866,14 +10825,17 @@
       <c r="O32">
         <v>0</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -8919,14 +10881,17 @@
       <c r="O33">
         <v>0</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
@@ -8972,14 +10937,17 @@
       <c r="O34">
         <v>0</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>27</v>
       </c>
@@ -9025,14 +10993,17 @@
       <c r="O35">
         <v>0</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -9078,14 +11049,17 @@
       <c r="O36">
         <v>0</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -9131,17 +11105,20 @@
       <c r="O37">
         <v>0</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>20</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -9187,17 +11164,20 @@
       <c r="O38">
         <v>0</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>57</v>
       </c>
-      <c r="R38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -9243,17 +11223,20 @@
       <c r="O39">
         <v>0</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>57</v>
       </c>
-      <c r="R39" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
@@ -9299,17 +11282,20 @@
       <c r="O40">
         <v>0</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>57</v>
       </c>
-      <c r="R40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
@@ -9355,17 +11341,20 @@
       <c r="O41">
         <v>0</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>57</v>
       </c>
-      <c r="R41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>63</v>
       </c>
@@ -9411,17 +11400,20 @@
       <c r="O42">
         <v>0</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>57</v>
       </c>
-      <c r="R42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
@@ -9467,17 +11459,20 @@
       <c r="O43">
         <v>1</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>57</v>
       </c>
-      <c r="R43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
@@ -9523,17 +11518,20 @@
       <c r="O44">
         <v>1</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>57</v>
       </c>
-      <c r="R44" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -9579,17 +11577,20 @@
       <c r="O45">
         <v>1</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>57</v>
       </c>
-      <c r="R45" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>67</v>
       </c>
@@ -9635,17 +11636,20 @@
       <c r="O46">
         <v>1</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>57</v>
       </c>
-      <c r="R46" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>68</v>
       </c>
@@ -9691,17 +11695,20 @@
       <c r="O47">
         <v>0</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>57</v>
       </c>
-      <c r="R47" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
@@ -9747,17 +11754,20 @@
       <c r="O48">
         <v>0</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>57</v>
       </c>
-      <c r="R48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
@@ -9803,17 +11813,20 @@
       <c r="O49">
         <v>0</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>57</v>
       </c>
-      <c r="R49" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
@@ -9859,17 +11872,20 @@
       <c r="O50">
         <v>0</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>57</v>
       </c>
-      <c r="R50" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>72</v>
       </c>
@@ -9915,17 +11931,20 @@
       <c r="O51">
         <v>0</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>57</v>
       </c>
-      <c r="R51" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
@@ -9971,17 +11990,20 @@
       <c r="O52">
         <v>0</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>57</v>
       </c>
-      <c r="R52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>74</v>
       </c>
@@ -10027,17 +12049,20 @@
       <c r="O53">
         <v>0</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q53" s="1" t="s">
+      <c r="R53" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R53" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>75</v>
       </c>
@@ -10083,17 +12108,20 @@
       <c r="O54">
         <v>0</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q54" s="1" t="s">
+      <c r="R54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R54" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>76</v>
       </c>
@@ -10139,17 +12167,20 @@
       <c r="O55">
         <v>0</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="R55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R55" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>77</v>
       </c>
@@ -10195,17 +12226,20 @@
       <c r="O56">
         <v>0</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q56" s="1" t="s">
+      <c r="R56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R56" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>78</v>
       </c>
@@ -10251,17 +12285,20 @@
       <c r="O57">
         <v>0</v>
       </c>
-      <c r="P57" s="7" t="s">
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="R57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R57" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>79</v>
       </c>
@@ -10307,17 +12344,20 @@
       <c r="O58">
         <v>0</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="s">
         <v>57</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="R58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>91</v>
       </c>
@@ -10363,17 +12403,20 @@
       <c r="O59">
         <v>0</v>
       </c>
-      <c r="P59" t="s">
-        <v>140</v>
+      <c r="P59">
+        <v>0</v>
       </c>
       <c r="Q59" t="s">
         <v>140</v>
       </c>
       <c r="R59" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="S59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>92</v>
       </c>
@@ -10419,17 +12462,20 @@
       <c r="O60">
         <v>0</v>
       </c>
-      <c r="P60" t="s">
-        <v>141</v>
+      <c r="P60">
+        <v>0</v>
       </c>
       <c r="Q60" t="s">
         <v>141</v>
       </c>
       <c r="R60" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="S60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>93</v>
       </c>
@@ -10475,17 +12521,20 @@
       <c r="O61">
         <v>0</v>
       </c>
-      <c r="P61" t="s">
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="s">
         <v>82</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>93</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>94</v>
       </c>
@@ -10531,17 +12580,20 @@
       <c r="O62">
         <v>0</v>
       </c>
-      <c r="P62" t="s">
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="s">
         <v>82</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>94</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>101</v>
       </c>
@@ -10587,17 +12639,20 @@
       <c r="O63">
         <v>0</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="s">
         <v>82</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>101</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>95</v>
       </c>
@@ -10643,17 +12698,20 @@
       <c r="O64">
         <v>0</v>
       </c>
-      <c r="P64" t="s">
-        <v>95</v>
+      <c r="P64">
+        <v>0</v>
       </c>
       <c r="Q64" t="s">
         <v>95</v>
       </c>
       <c r="R64" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="S64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>96</v>
       </c>
@@ -10699,17 +12757,20 @@
       <c r="O65">
         <v>0</v>
       </c>
-      <c r="P65" t="s">
-        <v>96</v>
+      <c r="P65">
+        <v>0</v>
       </c>
       <c r="Q65" t="s">
         <v>96</v>
       </c>
       <c r="R65" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="S65" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>97</v>
       </c>
@@ -10755,17 +12816,20 @@
       <c r="O66">
         <v>0</v>
       </c>
-      <c r="P66" t="s">
-        <v>97</v>
+      <c r="P66">
+        <v>0</v>
       </c>
       <c r="Q66" t="s">
         <v>97</v>
       </c>
       <c r="R66" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="S66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>98</v>
       </c>
@@ -10811,17 +12875,20 @@
       <c r="O67">
         <v>0</v>
       </c>
-      <c r="P67" t="s">
-        <v>99</v>
+      <c r="P67">
+        <v>0</v>
       </c>
       <c r="Q67" t="s">
         <v>99</v>
       </c>
       <c r="R67" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="S67" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>100</v>
       </c>
@@ -10867,17 +12934,20 @@
       <c r="O68">
         <v>0</v>
       </c>
-      <c r="P68" t="s">
-        <v>99</v>
+      <c r="P68">
+        <v>0</v>
       </c>
       <c r="Q68" t="s">
         <v>99</v>
       </c>
       <c r="R68" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="S68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>102</v>
       </c>
@@ -10923,17 +12993,20 @@
       <c r="O69">
         <v>0</v>
       </c>
-      <c r="P69" t="s">
-        <v>103</v>
+      <c r="P69">
+        <v>0</v>
       </c>
       <c r="Q69" t="s">
         <v>103</v>
       </c>
       <c r="R69" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="S69" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>104</v>
       </c>
@@ -10979,17 +13052,20 @@
       <c r="O70">
         <v>0</v>
       </c>
-      <c r="P70" t="s">
-        <v>103</v>
+      <c r="P70">
+        <v>0</v>
       </c>
       <c r="Q70" t="s">
         <v>103</v>
       </c>
       <c r="R70" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="S70" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>122</v>
       </c>
@@ -11035,17 +13111,20 @@
       <c r="O71">
         <v>0</v>
       </c>
-      <c r="P71" t="s">
-        <v>105</v>
+      <c r="P71">
+        <v>0</v>
       </c>
       <c r="Q71" t="s">
         <v>105</v>
       </c>
       <c r="R71" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="S71" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>123</v>
       </c>
@@ -11091,17 +13170,20 @@
       <c r="O72">
         <v>0</v>
       </c>
-      <c r="P72" t="s">
-        <v>105</v>
+      <c r="P72">
+        <v>0</v>
       </c>
       <c r="Q72" t="s">
         <v>105</v>
       </c>
       <c r="R72" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="S72" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>124</v>
       </c>
@@ -11147,17 +13229,20 @@
       <c r="O73">
         <v>0</v>
       </c>
-      <c r="P73" t="s">
-        <v>105</v>
+      <c r="P73">
+        <v>0</v>
       </c>
       <c r="Q73" t="s">
         <v>105</v>
       </c>
       <c r="R73" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="S73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>125</v>
       </c>
@@ -11203,17 +13288,20 @@
       <c r="O74">
         <v>0</v>
       </c>
-      <c r="P74" t="s">
-        <v>105</v>
+      <c r="P74">
+        <v>0</v>
       </c>
       <c r="Q74" t="s">
         <v>105</v>
       </c>
       <c r="R74" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="S74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>126</v>
       </c>
@@ -11259,17 +13347,20 @@
       <c r="O75">
         <v>0</v>
       </c>
-      <c r="P75" t="s">
-        <v>105</v>
+      <c r="P75">
+        <v>0</v>
       </c>
       <c r="Q75" t="s">
         <v>105</v>
       </c>
       <c r="R75" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="S75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>127</v>
       </c>
@@ -11315,17 +13406,20 @@
       <c r="O76">
         <v>0</v>
       </c>
-      <c r="P76" t="s">
-        <v>105</v>
+      <c r="P76">
+        <v>0</v>
       </c>
       <c r="Q76" t="s">
         <v>105</v>
       </c>
       <c r="R76" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="S76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>128</v>
       </c>
@@ -11371,17 +13465,20 @@
       <c r="O77">
         <v>0</v>
       </c>
-      <c r="P77" t="s">
-        <v>105</v>
+      <c r="P77">
+        <v>0</v>
       </c>
       <c r="Q77" t="s">
         <v>105</v>
       </c>
       <c r="R77" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="S77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>129</v>
       </c>
@@ -11427,17 +13524,20 @@
       <c r="O78">
         <v>0</v>
       </c>
-      <c r="P78" t="s">
-        <v>105</v>
+      <c r="P78">
+        <v>0</v>
       </c>
       <c r="Q78" t="s">
         <v>105</v>
       </c>
       <c r="R78" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="S78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>130</v>
       </c>
@@ -11483,17 +13583,20 @@
       <c r="O79">
         <v>0</v>
       </c>
-      <c r="P79" t="s">
-        <v>105</v>
+      <c r="P79">
+        <v>0</v>
       </c>
       <c r="Q79" t="s">
         <v>105</v>
       </c>
       <c r="R79" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="S79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>131</v>
       </c>
@@ -11539,17 +13642,20 @@
       <c r="O80">
         <v>0</v>
       </c>
-      <c r="P80" t="s">
-        <v>105</v>
+      <c r="P80">
+        <v>0</v>
       </c>
       <c r="Q80" t="s">
         <v>105</v>
       </c>
       <c r="R80" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="S80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>132</v>
       </c>
@@ -11595,17 +13701,20 @@
       <c r="O81">
         <v>0</v>
       </c>
-      <c r="P81" t="s">
-        <v>105</v>
+      <c r="P81">
+        <v>0</v>
       </c>
       <c r="Q81" t="s">
         <v>105</v>
       </c>
       <c r="R81" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="S81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>133</v>
       </c>
@@ -11651,17 +13760,20 @@
       <c r="O82">
         <v>0</v>
       </c>
-      <c r="P82" t="s">
-        <v>105</v>
+      <c r="P82">
+        <v>0</v>
       </c>
       <c r="Q82" t="s">
         <v>105</v>
       </c>
       <c r="R82" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="S82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>134</v>
       </c>
@@ -11707,17 +13819,20 @@
       <c r="O83">
         <v>0</v>
       </c>
-      <c r="P83" t="s">
-        <v>105</v>
+      <c r="P83">
+        <v>0</v>
       </c>
       <c r="Q83" t="s">
         <v>105</v>
       </c>
       <c r="R83" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="S83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>135</v>
       </c>
@@ -11763,17 +13878,20 @@
       <c r="O84">
         <v>0</v>
       </c>
-      <c r="P84" t="s">
-        <v>105</v>
+      <c r="P84">
+        <v>0</v>
       </c>
       <c r="Q84" t="s">
         <v>105</v>
       </c>
       <c r="R84" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="S84" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>106</v>
       </c>
@@ -11819,17 +13937,20 @@
       <c r="O85">
         <v>0</v>
       </c>
-      <c r="P85" t="s">
-        <v>148</v>
+      <c r="P85">
+        <v>0</v>
       </c>
       <c r="Q85" t="s">
         <v>148</v>
       </c>
       <c r="R85" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="S85" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>107</v>
       </c>
@@ -11875,17 +13996,20 @@
       <c r="O86">
         <v>0</v>
       </c>
-      <c r="P86" t="s">
-        <v>149</v>
+      <c r="P86">
+        <v>0</v>
       </c>
       <c r="Q86" t="s">
         <v>149</v>
       </c>
       <c r="R86" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="S86" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>108</v>
       </c>
@@ -11931,17 +14055,20 @@
       <c r="O87">
         <v>0</v>
       </c>
-      <c r="P87" t="s">
-        <v>150</v>
+      <c r="P87">
+        <v>0</v>
       </c>
       <c r="Q87" t="s">
         <v>150</v>
       </c>
       <c r="R87" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="S87" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>109</v>
       </c>
@@ -11987,17 +14114,20 @@
       <c r="O88">
         <v>0</v>
       </c>
-      <c r="P88" t="s">
-        <v>139</v>
+      <c r="P88">
+        <v>0</v>
       </c>
       <c r="Q88" t="s">
         <v>139</v>
       </c>
       <c r="R88" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="S88" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>110</v>
       </c>
@@ -12043,17 +14173,20 @@
       <c r="O89">
         <v>0</v>
       </c>
-      <c r="P89" t="s">
-        <v>139</v>
+      <c r="P89">
+        <v>0</v>
       </c>
       <c r="Q89" t="s">
         <v>139</v>
       </c>
       <c r="R89" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="S89" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>111</v>
       </c>
@@ -12099,17 +14232,20 @@
       <c r="O90">
         <v>0</v>
       </c>
-      <c r="P90" t="s">
-        <v>139</v>
+      <c r="P90">
+        <v>0</v>
       </c>
       <c r="Q90" t="s">
         <v>139</v>
       </c>
       <c r="R90" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="S90" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>112</v>
       </c>
@@ -12155,17 +14291,20 @@
       <c r="O91">
         <v>0</v>
       </c>
-      <c r="P91" t="s">
-        <v>139</v>
+      <c r="P91">
+        <v>0</v>
       </c>
       <c r="Q91" t="s">
         <v>139</v>
       </c>
       <c r="R91" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="S91" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>113</v>
       </c>
@@ -12211,17 +14350,20 @@
       <c r="O92">
         <v>0</v>
       </c>
-      <c r="P92" t="s">
-        <v>139</v>
+      <c r="P92">
+        <v>0</v>
       </c>
       <c r="Q92" t="s">
         <v>139</v>
       </c>
       <c r="R92" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="S92" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>114</v>
       </c>
@@ -12267,17 +14409,20 @@
       <c r="O93">
         <v>0</v>
       </c>
-      <c r="P93" t="s">
-        <v>139</v>
+      <c r="P93">
+        <v>0</v>
       </c>
       <c r="Q93" t="s">
         <v>139</v>
       </c>
       <c r="R93" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="S93" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>115</v>
       </c>
@@ -12323,17 +14468,20 @@
       <c r="O94">
         <v>0</v>
       </c>
-      <c r="P94" t="s">
-        <v>139</v>
+      <c r="P94">
+        <v>0</v>
       </c>
       <c r="Q94" t="s">
         <v>139</v>
       </c>
       <c r="R94" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="S94" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>116</v>
       </c>
@@ -12379,17 +14527,20 @@
       <c r="O95">
         <v>0</v>
       </c>
-      <c r="P95" t="s">
-        <v>139</v>
+      <c r="P95">
+        <v>0</v>
       </c>
       <c r="Q95" t="s">
         <v>139</v>
       </c>
       <c r="R95" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="S95" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>117</v>
       </c>
@@ -12435,17 +14586,20 @@
       <c r="O96">
         <v>0</v>
       </c>
-      <c r="P96" t="s">
-        <v>139</v>
+      <c r="P96">
+        <v>0</v>
       </c>
       <c r="Q96" t="s">
         <v>139</v>
       </c>
       <c r="R96" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="S96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>118</v>
       </c>
@@ -12491,17 +14645,20 @@
       <c r="O97">
         <v>0</v>
       </c>
-      <c r="P97" t="s">
-        <v>139</v>
+      <c r="P97">
+        <v>0</v>
       </c>
       <c r="Q97" t="s">
         <v>139</v>
       </c>
       <c r="R97" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="S97" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>119</v>
       </c>
@@ -12547,17 +14704,20 @@
       <c r="O98">
         <v>0</v>
       </c>
-      <c r="P98" t="s">
-        <v>139</v>
+      <c r="P98">
+        <v>0</v>
       </c>
       <c r="Q98" t="s">
         <v>139</v>
       </c>
       <c r="R98" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="S98" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>120</v>
       </c>
@@ -12603,17 +14763,20 @@
       <c r="O99">
         <v>0</v>
       </c>
-      <c r="P99" t="s">
-        <v>139</v>
+      <c r="P99">
+        <v>0</v>
       </c>
       <c r="Q99" t="s">
         <v>139</v>
       </c>
       <c r="R99" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="S99" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>121</v>
       </c>
@@ -12659,33 +14822,1334 @@
       <c r="O100">
         <v>0</v>
       </c>
-      <c r="P100" t="s">
-        <v>139</v>
+      <c r="P100">
+        <v>0</v>
       </c>
       <c r="Q100" t="s">
         <v>139</v>
       </c>
       <c r="R100" t="s">
+        <v>139</v>
+      </c>
+      <c r="S100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101">
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <v>36</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>6</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>6</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>173</v>
+      </c>
+      <c r="R101" t="s">
+        <v>173</v>
+      </c>
+      <c r="S101" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102">
+        <v>14</v>
+      </c>
+      <c r="C102">
+        <v>42</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>7</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>7</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>173</v>
+      </c>
+      <c r="R102" t="s">
+        <v>173</v>
+      </c>
+      <c r="S102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103">
+        <v>16</v>
+      </c>
+      <c r="C103">
+        <v>48</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>8</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>8</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>173</v>
+      </c>
+      <c r="R103" t="s">
+        <v>173</v>
+      </c>
+      <c r="S103" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104">
+        <v>18</v>
+      </c>
+      <c r="C104">
+        <v>54</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>9</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>9</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>173</v>
+      </c>
+      <c r="R104" t="s">
+        <v>173</v>
+      </c>
+      <c r="S104" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B105">
+        <v>20</v>
+      </c>
+      <c r="C105">
+        <v>60</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>10</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>173</v>
+      </c>
+      <c r="R105" t="s">
+        <v>173</v>
+      </c>
+      <c r="S105" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106">
+        <v>22</v>
+      </c>
+      <c r="C106">
+        <v>66</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>11</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>173</v>
+      </c>
+      <c r="R106" t="s">
+        <v>173</v>
+      </c>
+      <c r="S106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B107">
+        <v>24</v>
+      </c>
+      <c r="C107">
+        <v>72</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>12</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>173</v>
+      </c>
+      <c r="R107" t="s">
+        <v>173</v>
+      </c>
+      <c r="S107" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B108">
+        <v>26</v>
+      </c>
+      <c r="C108">
+        <v>78</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>13</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>13</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>173</v>
+      </c>
+      <c r="R108" t="s">
+        <v>173</v>
+      </c>
+      <c r="S108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B109">
+        <v>28</v>
+      </c>
+      <c r="C109">
+        <v>84</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>14</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>173</v>
+      </c>
+      <c r="R109" t="s">
+        <v>173</v>
+      </c>
+      <c r="S109" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B110">
+        <v>30</v>
+      </c>
+      <c r="C110">
+        <v>90</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>15</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>15</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>173</v>
+      </c>
+      <c r="R110" t="s">
+        <v>173</v>
+      </c>
+      <c r="S110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B111">
+        <v>32</v>
+      </c>
+      <c r="C111">
+        <v>96</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>16</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>16</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>173</v>
+      </c>
+      <c r="R111" t="s">
+        <v>173</v>
+      </c>
+      <c r="S111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B112">
+        <v>34</v>
+      </c>
+      <c r="C112">
+        <v>102</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>17</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>17</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>173</v>
+      </c>
+      <c r="R112" t="s">
+        <v>173</v>
+      </c>
+      <c r="S112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B113">
+        <v>36</v>
+      </c>
+      <c r="C113">
+        <v>108</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>18</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>18</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>173</v>
+      </c>
+      <c r="R113" t="s">
+        <v>173</v>
+      </c>
+      <c r="S113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B114">
+        <v>38</v>
+      </c>
+      <c r="C114">
+        <v>114</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>19</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>19</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>173</v>
+      </c>
+      <c r="R114" t="s">
+        <v>173</v>
+      </c>
+      <c r="S114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B115">
+        <v>40</v>
+      </c>
+      <c r="C115">
+        <v>120</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>20</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>20</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>173</v>
+      </c>
+      <c r="R115" t="s">
+        <v>173</v>
+      </c>
+      <c r="S115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B116">
+        <v>42</v>
+      </c>
+      <c r="C116">
+        <v>126</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>21</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>21</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>173</v>
+      </c>
+      <c r="R116" t="s">
+        <v>173</v>
+      </c>
+      <c r="S116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B117">
+        <v>44</v>
+      </c>
+      <c r="C117">
+        <v>132</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>22</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>22</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>173</v>
+      </c>
+      <c r="R117" t="s">
+        <v>173</v>
+      </c>
+      <c r="S117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B118">
+        <v>46</v>
+      </c>
+      <c r="C118">
+        <v>138</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>23</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>23</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>173</v>
+      </c>
+      <c r="R118" t="s">
+        <v>173</v>
+      </c>
+      <c r="S118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B119">
+        <v>48</v>
+      </c>
+      <c r="C119">
+        <v>144</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>24</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>24</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>173</v>
+      </c>
+      <c r="R119" t="s">
+        <v>173</v>
+      </c>
+      <c r="S119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B120">
+        <v>50</v>
+      </c>
+      <c r="C120">
+        <v>150</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>25</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>25</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>173</v>
+      </c>
+      <c r="R120" t="s">
+        <v>173</v>
+      </c>
+      <c r="S120" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B121">
+        <v>52</v>
+      </c>
+      <c r="C121">
+        <v>156</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>26</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>26</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>173</v>
+      </c>
+      <c r="R121" t="s">
+        <v>173</v>
+      </c>
+      <c r="S121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B122">
+        <v>54</v>
+      </c>
+      <c r="C122">
+        <v>162</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>27</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>27</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>173</v>
+      </c>
+      <c r="R122" t="s">
+        <v>173</v>
+      </c>
+      <c r="S122" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -12693,7 +16157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -12701,7 +16165,7 @@
         <v>1.00727646677</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -12709,7 +16173,7 @@
         <v>1.0078250399999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -12717,7 +16181,7 @@
         <v>14.003074005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -12725,7 +16189,7 @@
         <v>15.994914622</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -12733,7 +16197,7 @@
         <v>30.973761511999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -12741,7 +16205,7 @@
         <v>31.972070689999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -12749,7 +16213,7 @@
         <v>22.98977</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -12757,7 +16221,7 @@
         <v>34.968852707000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -12765,7 +16229,7 @@
         <v>38.963706860999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -12773,91 +16237,108 @@
         <v>5.4857990924000002E-4</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>23.985045</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13">
+        <v>27.97692649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="167.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="167.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -12868,7 +16349,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>42327</v>
       </c>
@@ -12879,7 +16360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>42328</v>
       </c>
@@ -12890,7 +16371,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>42329</v>
       </c>
@@ -12901,7 +16382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>42344</v>
       </c>
@@ -12912,7 +16393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>42344</v>
       </c>
@@ -12923,7 +16404,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>42371</v>
       </c>
@@ -12934,7 +16415,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>42607</v>
       </c>
@@ -12945,7 +16426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>42624</v>
       </c>
@@ -12956,7 +16437,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>42709</v>
       </c>
@@ -12967,7 +16448,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>42719</v>
       </c>
@@ -12978,7 +16459,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>42758</v>
       </c>
@@ -12989,7 +16470,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>42758</v>
       </c>
@@ -13000,7 +16481,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>42758</v>
       </c>
@@ -13011,7 +16492,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>42758</v>
       </c>
@@ -13022,7 +16503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>42758</v>
       </c>
@@ -13033,7 +16514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>42759</v>
       </c>
@@ -13044,7 +16525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>42759</v>
       </c>
@@ -13055,7 +16536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>42760</v>
       </c>
@@ -13066,7 +16547,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>42769</v>
       </c>
@@ -13075,6 +16556,17 @@
       </c>
       <c r="C36" s="7" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>42779</v>
+      </c>
+      <c r="B37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
